--- a/Server/masterdata/ManualTests/Tesztek.xlsx
+++ b/Server/masterdata/ManualTests/Tesztek.xlsx
@@ -727,19 +727,19 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Szám</t>
+          <t>Válasz</t>
         </is>
       </c>
     </row>
     <row r="6" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>Akhmad Kadyrov mecset</t>
+          <t>Ahmed Szultán Mecset</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Oroszország, Grozníj</t>
+          <t>Törökország, Isztambul</t>
         </is>
       </c>
       <c r="C6" s="15" t="n"/>
@@ -747,12 +747,12 @@
     <row r="7" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>Al-Masjid al-Haram</t>
+          <t>Capitolium</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Szaúd-Arábia, Mekka</t>
+          <t>Egyesült Államok, Washington</t>
         </is>
       </c>
       <c r="C7" s="15" t="n"/>
@@ -760,12 +760,12 @@
     <row r="8" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>Boldog Vazul-székesegyház</t>
+          <t>Empire State Building</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Oroszország, Moszkva</t>
+          <t>Egyesült Államok, New York</t>
         </is>
       </c>
       <c r="C8" s="15" t="n"/>
@@ -773,12 +773,12 @@
     <row r="9" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>Burj Al Arab</t>
+          <t>Mátyás-templom és Halászbástya</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Arab Emírségek, Dubai</t>
+          <t>Magyarország, Budapest</t>
         </is>
       </c>
       <c r="C9" s="15" t="n"/>
@@ -786,12 +786,12 @@
     <row r="10" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>Chrysler Building</t>
+          <t>Megváltó Krisztus szobra</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Államok, New York</t>
+          <t>Brazília, Rio de Janeiro</t>
         </is>
       </c>
       <c r="C10" s="15" t="n"/>
@@ -799,12 +799,12 @@
     <row r="11" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>Eyüp Sultan mecset</t>
+          <t>Mustafa Kemal Atatürk Mauzóleuma</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Törökország, Isztambul</t>
+          <t>Törökország, Ankara</t>
         </is>
       </c>
       <c r="C11" s="15" t="n"/>
@@ -812,12 +812,12 @@
     <row r="12" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>HMS Beagle 1918</t>
+          <t>Pekingi Siheyuan</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Királyság [elsüllyedt]</t>
+          <t>Kína, Peking</t>
         </is>
       </c>
       <c r="C12" s="15" t="n"/>
@@ -825,12 +825,12 @@
     <row r="13" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>Hat Hölgy kastély</t>
+          <t>Peles kastély</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Franciaország, Chenonceaux</t>
+          <t>Románia, Szinaja</t>
         </is>
       </c>
       <c r="C13" s="15" t="n"/>
@@ -838,12 +838,12 @@
     <row r="14" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>Hősök tere</t>
+          <t>Petronas-ikertorony</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Magyarország, Budapest</t>
+          <t>Malajzia, Kuala Lumpur</t>
         </is>
       </c>
       <c r="C14" s="15" t="n"/>
@@ -851,12 +851,12 @@
     <row r="15" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>Megváltó Krisztus szobra</t>
+          <t>Pisai Ferde Torony</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Brazília, Rio de Janeiro</t>
+          <t>Olaszország, Pisa</t>
         </is>
       </c>
       <c r="C15" s="15" t="n"/>
@@ -864,12 +864,12 @@
     <row r="16" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>Milánói Dóm</t>
+          <t>Prágai Csillagászati óra és városháza</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Olaszország, Milánó</t>
+          <t>Csehország, Prága</t>
         </is>
       </c>
       <c r="C16" s="15" t="n"/>
@@ -877,12 +877,12 @@
     <row r="17" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>Országház</t>
+          <t>Római csatahajó</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Magyarország, Budapest</t>
+          <t>Olaszország [elsüllyedt]</t>
         </is>
       </c>
       <c r="C17" s="15" t="n"/>
@@ -890,12 +890,12 @@
     <row r="18" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>Oszakai várkastély</t>
+          <t>San Felipe 1690</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Japán, Oszaka</t>
+          <t>Spanyolország [elsüllyedt]</t>
         </is>
       </c>
       <c r="C18" s="15" t="n"/>
@@ -903,12 +903,12 @@
     <row r="19" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>Prágai Csillagászati óra és városháza</t>
+          <t>Santa Maria 1492</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Csehország, Prága</t>
+          <t>Spanyolország [elsüllyedt]</t>
         </is>
       </c>
       <c r="C19" s="15" t="n"/>
@@ -929,12 +929,12 @@
     <row r="21" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>Széchenyi Lánchíd</t>
+          <t>Szent Izsák-székesegyház</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Magyarország, Budapest</t>
+          <t>Oroszország, Szentpétervár</t>
         </is>
       </c>
       <c r="C21" s="15" t="n"/>
@@ -942,12 +942,12 @@
     <row r="22" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>Vajdahunyad vára</t>
+          <t>Szent Pál-székesegyház</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Magyarország, Budapest</t>
+          <t>Egyesült Királyság, London</t>
         </is>
       </c>
       <c r="C22" s="15" t="n"/>
@@ -955,12 +955,12 @@
     <row r="23" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>Westminsteri apátság</t>
+          <t>Tiananmen tér</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Királyság, London</t>
+          <t>Kína, Peking</t>
         </is>
       </c>
       <c r="C23" s="15" t="n"/>
@@ -968,12 +968,12 @@
     <row r="24" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>Willis Tower</t>
+          <t>Tokyo Skytree</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Államok, Chicago</t>
+          <t>Japán, Tokió</t>
         </is>
       </c>
       <c r="C24" s="15" t="n"/>
@@ -1140,7 +1140,7 @@
     <row r="4" ht="60" customFormat="1" customHeight="1" s="9" thickBot="1">
       <c r="A4" s="19" t="inlineStr">
         <is>
-          <t>Next to each building’s name write the number that is shown beside its model in the exhibition!</t>
+          <t>Write the number next to the name of each building, that is shown near its model in the exhibition!</t>
         </is>
       </c>
     </row>
@@ -1164,12 +1164,12 @@
     <row r="6" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>Big Ben</t>
+          <t>Al-Masjid an-Nabawi</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>London, United Kingdom</t>
+          <t>Medina, Saudi Arabia</t>
         </is>
       </c>
       <c r="C6" s="15" t="n"/>
@@ -1177,12 +1177,12 @@
     <row r="7" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>Brooklyn bridge</t>
+          <t>Brandenburg gate</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>New York, United States of America</t>
+          <t>Berlin, Germany</t>
         </is>
       </c>
       <c r="C7" s="15" t="n"/>
@@ -1190,12 +1190,12 @@
     <row r="8" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>Burj Kalifa</t>
+          <t>Dohány Street Synagogue</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>Budapest, Hungary</t>
         </is>
       </c>
       <c r="C8" s="15" t="n"/>
@@ -1203,12 +1203,12 @@
     <row r="9" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>Empire State Building</t>
+          <t>Flying Dutchman ghostship</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>New York, United States of America</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C9" s="15" t="n"/>
@@ -1216,12 +1216,12 @@
     <row r="10" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>Galata tower</t>
+          <t>Himeji castle</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Istanbul, Turkey</t>
+          <t>Himeji, Japan</t>
         </is>
       </c>
       <c r="C10" s="15" t="n"/>
@@ -1229,12 +1229,12 @@
     <row r="11" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>Hohenzollern castle</t>
+          <t>HMS Beagle 1918</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Bisingen, Germany</t>
+          <t>United Kingdom [sank]</t>
         </is>
       </c>
       <c r="C11" s="15" t="n"/>
@@ -1242,12 +1242,12 @@
     <row r="12" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>Hungarian Parliament</t>
+          <t>Leaning Tower of Pisa</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Pisa, Italy</t>
         </is>
       </c>
       <c r="C12" s="15" t="n"/>
@@ -1255,12 +1255,12 @@
     <row r="13" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>Kul Sharif mosque</t>
+          <t>Neuschwanstein castle</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Kazan, Russia</t>
+          <t>Schwangau, Germany</t>
         </is>
       </c>
       <c r="C13" s="15" t="n"/>
@@ -1268,12 +1268,12 @@
     <row r="14" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>Matthias church &amp; Fisherman's bastion</t>
+          <t>Notre-Dame de Paris</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Paris, France</t>
         </is>
       </c>
       <c r="C14" s="15" t="n"/>
@@ -1281,12 +1281,12 @@
     <row r="15" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>Royal Castle</t>
+          <t>Petronas Twin towers</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Warsaw, Poland</t>
+          <t>Kuala Lumpur, Malaysia</t>
         </is>
       </c>
       <c r="C15" s="15" t="n"/>
@@ -1294,12 +1294,12 @@
     <row r="16" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>Sagrada Familia</t>
+          <t>Roman warship</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Barcelona, Spain</t>
+          <t>Italy [sank]</t>
         </is>
       </c>
       <c r="C16" s="15" t="n"/>
@@ -1307,12 +1307,12 @@
     <row r="17" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>St. Isaac's cathedral</t>
+          <t>Royal Castle</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Saint Petersburg, Russia</t>
+          <t>Warsaw, Poland</t>
         </is>
       </c>
       <c r="C17" s="15" t="n"/>
@@ -1320,12 +1320,12 @@
     <row r="18" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>St. Jacob's cathedral</t>
+          <t>Santa Maria 1492</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Santiago d. C., Spain</t>
+          <t>Spain [sank]</t>
         </is>
       </c>
       <c r="C18" s="15" t="n"/>
@@ -1333,12 +1333,12 @@
     <row r="19" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>St. Paul cathedral</t>
+          <t>Statue of Liberty</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>London, United Kingdom</t>
+          <t>New York, United States of America</t>
         </is>
       </c>
       <c r="C19" s="15" t="n"/>
@@ -1346,12 +1346,12 @@
     <row r="20" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>St. Peter's basilica</t>
+          <t>St. Jacob's cathedral</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Vatican City, Vatican</t>
+          <t>Santiago d. C., Spain</t>
         </is>
       </c>
       <c r="C20" s="15" t="n"/>
@@ -1359,12 +1359,12 @@
     <row r="21" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>Sydney Opera House</t>
+          <t>St. Paul cathedral</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Sydney, Australia</t>
+          <t>London, United Kingdom</t>
         </is>
       </c>
       <c r="C21" s="15" t="n"/>
@@ -1372,12 +1372,12 @@
     <row r="22" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>The Moscow Kremlin Wall</t>
+          <t>Tiananmen Square</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Moscow, Russia</t>
+          <t>Beijing, China</t>
         </is>
       </c>
       <c r="C22" s="15" t="n"/>
@@ -1385,12 +1385,12 @@
     <row r="23" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>USS Constitution 1797</t>
+          <t>United States Capitol</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Boston, United States of America</t>
+          <t>Washington, United States of America</t>
         </is>
       </c>
       <c r="C23" s="15" t="n"/>
@@ -1398,12 +1398,12 @@
     <row r="24" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>United States Capitol</t>
+          <t>Vajdahunyad Castle</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Washington, United States of America</t>
+          <t>Budapest, Hungary</t>
         </is>
       </c>
       <c r="C24" s="15" t="n"/>
@@ -1411,12 +1411,12 @@
     <row r="25" ht="27" customFormat="1" customHeight="1" s="8" thickBot="1">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>Wat Phra Kaew</t>
+          <t>Westminster Abbey</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
         <is>
-          <t>Bangkok, Thailand</t>
+          <t>London, United Kingdom</t>
         </is>
       </c>
       <c r="C25" s="16" t="n"/>
@@ -1510,19 +1510,19 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Szám</t>
+          <t>Válasz</t>
         </is>
       </c>
     </row>
     <row r="6" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>A Vérző Megváltó temploma</t>
+          <t>Al-Masjid an-Nabawi</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Oroszország, Szentpétervár</t>
+          <t>Szaúd-Arábia, Medina</t>
         </is>
       </c>
       <c r="C6" s="15" t="n"/>
@@ -1530,12 +1530,12 @@
     <row r="7" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>A moszkvai Kreml Fala</t>
+          <t>Az ég temploma</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Oroszország, Moszkva</t>
+          <t>Kína, Peking</t>
         </is>
       </c>
       <c r="C7" s="15" t="n"/>
@@ -1543,12 +1543,12 @@
     <row r="8" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>Ahmed Szultán Mecset</t>
+          <t>Buckingham Palota</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Törökország, Isztambul</t>
+          <t>Egyesült Királyság, London</t>
         </is>
       </c>
       <c r="C8" s="15" t="n"/>
@@ -1556,12 +1556,12 @@
     <row r="9" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>Al-Masjid an-Nabawi</t>
+          <t>Dohány utcai zsinagóga</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Szaúd-Arábia, Medina</t>
+          <t>Magyarország, Budapest</t>
         </is>
       </c>
       <c r="C9" s="15" t="n"/>
@@ -1569,12 +1569,12 @@
     <row r="10" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>Boldog Vazul-székesegyház</t>
+          <t>Eiffel Torony</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Oroszország, Moszkva</t>
+          <t>Franciaország, Párizs</t>
         </is>
       </c>
       <c r="C10" s="15" t="n"/>
@@ -1582,12 +1582,12 @@
     <row r="11" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>Eiffel Torony</t>
+          <t>Esmeralda 1855</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Franciaország, Párizs</t>
+          <t>Chile [elsüllyedt]</t>
         </is>
       </c>
       <c r="C11" s="15" t="n"/>
@@ -1595,12 +1595,12 @@
     <row r="12" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>Harry Potter Roxfort Kastély</t>
+          <t>HMS Victory 1765</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Királyság, Alnwick</t>
+          <t>Egyesült Királyság, Boston</t>
         </is>
       </c>
       <c r="C12" s="15" t="n"/>
@@ -1608,12 +1608,12 @@
     <row r="13" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>Holland szélmalom</t>
+          <t>Hohenzollern kastély</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Hollandia, Kinderdijk</t>
+          <t>Németország, Bisingen</t>
         </is>
       </c>
       <c r="C13" s="15" t="n"/>
@@ -1621,12 +1621,12 @@
     <row r="14" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>Hősök tere</t>
+          <t>Kínai Nagy Fal</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Magyarország, Budapest</t>
+          <t>Kína</t>
         </is>
       </c>
       <c r="C14" s="15" t="n"/>
@@ -1634,7 +1634,7 @@
     <row r="15" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>Kultúra és Tudomány Palotája</t>
+          <t>Királyi palota</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -1647,12 +1647,12 @@
     <row r="16" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>Louvre Múzeum</t>
+          <t>Mississippi gőzhajó</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Franciaország, Párizs</t>
+          <t>Egyesült Államok, New Orleans</t>
         </is>
       </c>
       <c r="C16" s="15" t="n"/>
@@ -1660,12 +1660,12 @@
     <row r="17" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>Megváltó Krisztus szobra</t>
+          <t>Suzhou klasszikus kertjei</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Brazília, Rio de Janeiro</t>
+          <t>Kína, Suzhou</t>
         </is>
       </c>
       <c r="C17" s="15" t="n"/>
@@ -1673,12 +1673,12 @@
     <row r="18" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>Milánói Dóm</t>
+          <t>Széchenyi Lánchíd</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Olaszország, Milánó</t>
+          <t>Magyarország, Budapest</t>
         </is>
       </c>
       <c r="C18" s="15" t="n"/>
@@ -1686,12 +1686,12 @@
     <row r="19" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>Nagyboldogasszony-székesegyház</t>
+          <t>Szent Pál-székesegyház</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Oroszország, Szergijev Poszad</t>
+          <t>Egyesült Királyság, London</t>
         </is>
       </c>
       <c r="C19" s="15" t="n"/>
@@ -1699,12 +1699,12 @@
     <row r="20" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>Pisai Ferde Torony</t>
+          <t>Szent Péter-bazilika</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Olaszország, Pisa</t>
+          <t>Vatikán, Vatikán Város</t>
         </is>
       </c>
       <c r="C20" s="15" t="n"/>
@@ -1712,12 +1712,12 @@
     <row r="21" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>Tadzs Mahal</t>
+          <t>Tower híd</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>India, Agra</t>
+          <t>Egyesült Királyság, London</t>
         </is>
       </c>
       <c r="C21" s="15" t="n"/>
@@ -1764,12 +1764,12 @@
     <row r="25" ht="27" customFormat="1" customHeight="1" s="8" thickBot="1">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>Waweli székesegyház</t>
+          <t>Westminsteri apátság</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
         <is>
-          <t>Lengyelország, Krakkó</t>
+          <t>Egyesült Királyság, London</t>
         </is>
       </c>
       <c r="C25" s="16" t="n"/>
@@ -1923,7 +1923,7 @@
     <row r="4" ht="60" customFormat="1" customHeight="1" s="9" thickBot="1">
       <c r="A4" s="19" t="inlineStr">
         <is>
-          <t>Next to each building’s name write the number that is shown beside its model in the exhibition!</t>
+          <t>Write the number next to the name of each building, that is shown near its model in the exhibition!</t>
         </is>
       </c>
     </row>
@@ -1973,12 +1973,12 @@
     <row r="8" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>Christ the Redeemer</t>
+          <t>Buckingham Palace</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Rio de Janeiro, Brasil</t>
+          <t>London, United Kingdom</t>
         </is>
       </c>
       <c r="C8" s="15" t="n"/>
@@ -1986,12 +1986,12 @@
     <row r="9" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>Church of the Savior on Blood</t>
+          <t>Classical Gardens of Suzhou</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Saint Petersburg, Russia</t>
+          <t>Suzhou, China</t>
         </is>
       </c>
       <c r="C9" s="15" t="n"/>
@@ -1999,12 +1999,12 @@
     <row r="10" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>Dutch windmill</t>
+          <t>Dohány Street Synagogue</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Kinderdijk, Netherlands</t>
+          <t>Budapest, Hungary</t>
         </is>
       </c>
       <c r="C10" s="15" t="n"/>
@@ -2025,12 +2025,12 @@
     <row r="12" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>Harry Potter Hogwarts castle</t>
+          <t>Esmeralda 1855</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Alnwick, United Kingdom</t>
+          <t>Chile [sank]</t>
         </is>
       </c>
       <c r="C12" s="15" t="n"/>
@@ -2038,12 +2038,12 @@
     <row r="13" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>Heroes' Square</t>
+          <t>Great Wall of China</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>China</t>
         </is>
       </c>
       <c r="C13" s="15" t="n"/>
@@ -2051,12 +2051,12 @@
     <row r="14" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>Leaning Tower of Pisa</t>
+          <t>HMS Victory 1765</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Pisa, Italy</t>
+          <t>Boston, United Kingdom</t>
         </is>
       </c>
       <c r="C14" s="15" t="n"/>
@@ -2064,12 +2064,12 @@
     <row r="15" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>Louvre Museum</t>
+          <t>Hohenzollern castle</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Paris, France</t>
+          <t>Bisingen, Germany</t>
         </is>
       </c>
       <c r="C15" s="15" t="n"/>
@@ -2077,12 +2077,12 @@
     <row r="16" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>Milan Cathedral</t>
+          <t>Mississippi steamship</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Milan, Italy</t>
+          <t>New Orleans, United States of America</t>
         </is>
       </c>
       <c r="C16" s="15" t="n"/>
@@ -2090,7 +2090,7 @@
     <row r="17" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>Palace of Culture and Science</t>
+          <t>Royal Castle</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -2103,12 +2103,12 @@
     <row r="18" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>Saint Basil's cathedral</t>
+          <t>St. Paul cathedral</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Moscow, Russia</t>
+          <t>London, United Kingdom</t>
         </is>
       </c>
       <c r="C18" s="15" t="n"/>
@@ -2116,12 +2116,12 @@
     <row r="19" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>Sultan Ahmed Mosque</t>
+          <t>St. Peter's basilica</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Istanbul, Turkey</t>
+          <t>Vatican City, Vatican</t>
         </is>
       </c>
       <c r="C19" s="15" t="n"/>
@@ -2129,12 +2129,12 @@
     <row r="20" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>Taj Mahal</t>
+          <t>Széchenyi Chain Bridge</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Agra, India</t>
+          <t>Budapest, Hungary</t>
         </is>
       </c>
       <c r="C20" s="15" t="n"/>
@@ -2142,12 +2142,12 @@
     <row r="21" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>The Assumption Cathedral</t>
+          <t>Temple of Heaven</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Sergiyev Posad, Russia</t>
+          <t>Beijing, China</t>
         </is>
       </c>
       <c r="C21" s="15" t="n"/>
@@ -2155,12 +2155,12 @@
     <row r="22" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>The Moscow Kremlin Wall</t>
+          <t>Tower bridge</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Moscow, Russia</t>
+          <t>London, United Kingdom</t>
         </is>
       </c>
       <c r="C22" s="15" t="n"/>
@@ -2194,12 +2194,12 @@
     <row r="25" ht="27" customFormat="1" customHeight="1" s="8" thickBot="1">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>Wawel Cathedral</t>
+          <t>Westminster Abbey</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
         <is>
-          <t>Kraków, Poland</t>
+          <t>London, United Kingdom</t>
         </is>
       </c>
       <c r="C25" s="16" t="n"/>
@@ -2293,19 +2293,19 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Szám</t>
+          <t>Válasz</t>
         </is>
       </c>
     </row>
     <row r="6" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>Anna királynő bosszúja</t>
+          <t>Al-Masjid an-Nabawi</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Királyság [elsüllyedt]</t>
+          <t>Szaúd-Arábia, Medina</t>
         </is>
       </c>
       <c r="C6" s="15" t="n"/>
@@ -2313,12 +2313,12 @@
     <row r="7" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>Boldog Vazul-székesegyház</t>
+          <t>Big Ben</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Oroszország, Moszkva</t>
+          <t>Egyesült Királyság, London</t>
         </is>
       </c>
       <c r="C7" s="15" t="n"/>
@@ -2326,12 +2326,12 @@
     <row r="8" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>Bolygó Hollandi szellemhajó</t>
+          <t>Burj Kalifa</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Hollandia</t>
+          <t>Egyesült Arab Emírségek, Dubai</t>
         </is>
       </c>
       <c r="C8" s="15" t="n"/>
@@ -2339,12 +2339,12 @@
     <row r="9" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>Esmeralda 1855</t>
+          <t>Chrysler Building</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Chile [elsüllyedt]</t>
+          <t>Egyesült Államok, New York</t>
         </is>
       </c>
       <c r="C9" s="15" t="n"/>
@@ -2352,12 +2352,12 @@
     <row r="10" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>Hat Hölgy kastély</t>
+          <t>Esztergomi Bazilika</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Franciaország, Chenonceaux</t>
+          <t>Magyarország, Esztergom</t>
         </is>
       </c>
       <c r="C10" s="15" t="n"/>
@@ -2365,12 +2365,12 @@
     <row r="11" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>Holland szélmalom</t>
+          <t>Firenzei Dóm</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Hollandia, Kinderdijk</t>
+          <t>Olaszország, Firenze</t>
         </is>
       </c>
       <c r="C11" s="15" t="n"/>
@@ -2378,12 +2378,12 @@
     <row r="12" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>Kínai Nagy Fal</t>
+          <t>Galata torony</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Kína</t>
+          <t>Törökország, Isztambul</t>
         </is>
       </c>
       <c r="C12" s="15" t="n"/>
@@ -2391,12 +2391,12 @@
     <row r="13" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>Megváltó Krisztus-székesegyház</t>
+          <t>Hagia Sophia</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Oroszország, Moszkva</t>
+          <t>Törökország, Isztambul</t>
         </is>
       </c>
       <c r="C13" s="15" t="n"/>
@@ -2404,12 +2404,12 @@
     <row r="14" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>Mátyás-templom és Halászbástya</t>
+          <t>Harry Potter Roxfort Kastély</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Magyarország, Budapest</t>
+          <t>Egyesült Királyság, Alnwick</t>
         </is>
       </c>
       <c r="C14" s="15" t="n"/>
@@ -2417,12 +2417,12 @@
     <row r="15" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>Római csatahajó</t>
+          <t>Hat Hölgy kastély</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Olaszország [elsüllyedt]</t>
+          <t>Franciaország, Chenonceaux</t>
         </is>
       </c>
       <c r="C15" s="15" t="n"/>
@@ -2430,12 +2430,12 @@
     <row r="16" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>San Felipe 1690</t>
+          <t>Hluboká kastély</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Spanyolország [elsüllyedt]</t>
+          <t>Csehország, Hluboká nad Vltavou</t>
         </is>
       </c>
       <c r="C16" s="15" t="n"/>
@@ -2443,12 +2443,12 @@
     <row r="17" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>Sky Tower</t>
+          <t>Keleti Gyöngy torony</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Új-Zéland, Auckland</t>
+          <t>Kína, Shanghai</t>
         </is>
       </c>
       <c r="C17" s="15" t="n"/>
@@ -2456,12 +2456,12 @@
     <row r="18" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>Suzhou klasszikus kertjei</t>
+          <t>Királyi palota</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Kína, Suzhou</t>
+          <t>Lengyelország, Varsó</t>
         </is>
       </c>
       <c r="C18" s="15" t="n"/>
@@ -2469,12 +2469,12 @@
     <row r="19" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>Sydney-i Operaház</t>
+          <t>Kölni dóm</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Ausztrália, Sydney</t>
+          <t>Németország, Köln</t>
         </is>
       </c>
       <c r="C19" s="15" t="n"/>
@@ -2482,12 +2482,12 @@
     <row r="20" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>Szent Pál-székesegyház</t>
+          <t>Mátyás-templom és Halászbástya</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Királyság, London</t>
+          <t>Magyarország, Budapest</t>
         </is>
       </c>
       <c r="C20" s="15" t="n"/>
@@ -2495,12 +2495,12 @@
     <row r="21" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>Szent Péter-bazilika</t>
+          <t>Mississippi gőzhajó</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Vatikán, Vatikán Város</t>
+          <t>Egyesült Államok, New Orleans</t>
         </is>
       </c>
       <c r="C21" s="15" t="n"/>
@@ -2508,12 +2508,12 @@
     <row r="22" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>Titanic</t>
+          <t>Tiananmen tér</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Királyság [elsüllyedt]</t>
+          <t>Kína, Peking</t>
         </is>
       </c>
       <c r="C22" s="15" t="n"/>
@@ -2521,7 +2521,7 @@
     <row r="23" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>Tokyo Skytree</t>
+          <t>Tokiói torony</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -2534,12 +2534,12 @@
     <row r="24" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>Törcsvári kastély</t>
+          <t>Tokyo Skytree</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Románia, Törcsvár</t>
+          <t>Japán, Tokió</t>
         </is>
       </c>
       <c r="C24" s="15" t="n"/>
@@ -2547,12 +2547,12 @@
     <row r="25" ht="27" customFormat="1" customHeight="1" s="8" thickBot="1">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>Westminsteri apátság</t>
+          <t>Vajdahunyad vára</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
         <is>
-          <t>Egyesült Királyság, London</t>
+          <t>Magyarország, Budapest</t>
         </is>
       </c>
       <c r="C25" s="16" t="n"/>
@@ -2706,7 +2706,7 @@
     <row r="4" ht="60" customFormat="1" customHeight="1" s="9" thickBot="1">
       <c r="A4" s="19" t="inlineStr">
         <is>
-          <t>Next to each building’s name write the number that is shown beside its model in the exhibition!</t>
+          <t>Write the number next to the name of each building, that is shown near its model in the exhibition!</t>
         </is>
       </c>
     </row>
@@ -2730,12 +2730,12 @@
     <row r="6" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>Bran castle</t>
+          <t>Al-Masjid an-Nabawi</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Bran, Romania</t>
+          <t>Medina, Saudi Arabia</t>
         </is>
       </c>
       <c r="C6" s="15" t="n"/>
@@ -2743,12 +2743,12 @@
     <row r="7" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>Cathedral of Christ the Savior</t>
+          <t>Basilica of Esztergom</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Moscow, Russia</t>
+          <t>Esztergom, Hungary</t>
         </is>
       </c>
       <c r="C7" s="15" t="n"/>
@@ -2756,12 +2756,12 @@
     <row r="8" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>Château de Chenonceau</t>
+          <t>Big Ben</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Chenonceaux, France</t>
+          <t>London, United Kingdom</t>
         </is>
       </c>
       <c r="C8" s="15" t="n"/>
@@ -2769,12 +2769,12 @@
     <row r="9" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>Classical Gardens of Suzhou</t>
+          <t>Burj Kalifa</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Suzhou, China</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="C9" s="15" t="n"/>
@@ -2782,12 +2782,12 @@
     <row r="10" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>Dutch windmill</t>
+          <t>Château de Chenonceau</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Kinderdijk, Netherlands</t>
+          <t>Chenonceaux, France</t>
         </is>
       </c>
       <c r="C10" s="15" t="n"/>
@@ -2795,12 +2795,12 @@
     <row r="11" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>Esmeralda 1855</t>
+          <t>Chrysler Building</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Chile [sank]</t>
+          <t>New York, United States of America</t>
         </is>
       </c>
       <c r="C11" s="15" t="n"/>
@@ -2808,12 +2808,12 @@
     <row r="12" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>Flying Dutchman ghostship</t>
+          <t>Cologne cathedral</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Cologne, Germany</t>
         </is>
       </c>
       <c r="C12" s="15" t="n"/>
@@ -2821,12 +2821,12 @@
     <row r="13" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>Great Wall of China</t>
+          <t>Florence Cathedral</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Firenze, Italy</t>
         </is>
       </c>
       <c r="C13" s="15" t="n"/>
@@ -2834,12 +2834,12 @@
     <row r="14" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>Matthias church &amp; Fisherman's bastion</t>
+          <t>Galata tower</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Istanbul, Turkey</t>
         </is>
       </c>
       <c r="C14" s="15" t="n"/>
@@ -2847,12 +2847,12 @@
     <row r="15" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>Queen Anne's Revenge</t>
+          <t>Hagia Sophia</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>United Kingdom [sank]</t>
+          <t>Istanbul, Turkey</t>
         </is>
       </c>
       <c r="C15" s="15" t="n"/>
@@ -2860,12 +2860,12 @@
     <row r="16" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>Roman warship</t>
+          <t>Harry Potter Hogwarts castle</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Italy [sank]</t>
+          <t>Alnwick, United Kingdom</t>
         </is>
       </c>
       <c r="C16" s="15" t="n"/>
@@ -2873,12 +2873,12 @@
     <row r="17" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>Saint Basil's cathedral</t>
+          <t>Hluboká castle</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Moscow, Russia</t>
+          <t>Hluboká nad Vltavou, Czech Republic</t>
         </is>
       </c>
       <c r="C17" s="15" t="n"/>
@@ -2886,12 +2886,12 @@
     <row r="18" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>San Felipe 1690</t>
+          <t>Matthias church &amp; Fisherman's bastion</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Spain [sank]</t>
+          <t>Budapest, Hungary</t>
         </is>
       </c>
       <c r="C18" s="15" t="n"/>
@@ -2899,12 +2899,12 @@
     <row r="19" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>Sky tower</t>
+          <t>Mississippi steamship</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Auckland, New-Zealand</t>
+          <t>New Orleans, United States of America</t>
         </is>
       </c>
       <c r="C19" s="15" t="n"/>
@@ -2912,12 +2912,12 @@
     <row r="20" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>St. Paul cathedral</t>
+          <t>Oriental Pearl tower</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>London, United Kingdom</t>
+          <t>Shanghai, China</t>
         </is>
       </c>
       <c r="C20" s="15" t="n"/>
@@ -2925,12 +2925,12 @@
     <row r="21" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>St. Peter's basilica</t>
+          <t>Royal Castle</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Vatican City, Vatican</t>
+          <t>Warsaw, Poland</t>
         </is>
       </c>
       <c r="C21" s="15" t="n"/>
@@ -2938,12 +2938,12 @@
     <row r="22" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>Sydney Opera House</t>
+          <t>Tiananmen Square</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Sydney, Australia</t>
+          <t>Beijing, China</t>
         </is>
       </c>
       <c r="C22" s="15" t="n"/>
@@ -2951,12 +2951,12 @@
     <row r="23" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>Titanic</t>
+          <t>Tokyo Skytree</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>United Kingdom [sank]</t>
+          <t>Tokyo, Japan</t>
         </is>
       </c>
       <c r="C23" s="15" t="n"/>
@@ -2964,7 +2964,7 @@
     <row r="24" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>Tokyo Skytree</t>
+          <t>Tokyo Tower</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -2977,12 +2977,12 @@
     <row r="25" ht="27" customFormat="1" customHeight="1" s="8" thickBot="1">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>Westminster Abbey</t>
+          <t>Vajdahunyad Castle</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
         <is>
-          <t>London, United Kingdom</t>
+          <t>Budapest, Hungary</t>
         </is>
       </c>
       <c r="C25" s="16" t="n"/>
@@ -3076,19 +3076,19 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Szám</t>
+          <t>Válasz</t>
         </is>
       </c>
     </row>
     <row r="6" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>A moszkvai Kreml Fala</t>
+          <t>Al-Masjid al-Haram</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Oroszország, Moszkva</t>
+          <t>Szaúd-Arábia, Mekka</t>
         </is>
       </c>
       <c r="C6" s="15" t="n"/>
@@ -3096,12 +3096,12 @@
     <row r="7" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>Ahmed Szultán Mecset</t>
+          <t>Bank of China Tower</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Törökország, Isztambul</t>
+          <t>Kína, Hong Kong</t>
         </is>
       </c>
       <c r="C7" s="15" t="n"/>
@@ -3109,12 +3109,12 @@
     <row r="8" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>Al-Masjid al-Haram</t>
+          <t>Capitolium</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Szaúd-Arábia, Mekka</t>
+          <t>Egyesült Államok, Washington</t>
         </is>
       </c>
       <c r="C8" s="15" t="n"/>
@@ -3122,12 +3122,12 @@
     <row r="9" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>Az ég temploma</t>
+          <t>Colosseum</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Kína, Peking</t>
+          <t>Olaszország, Róma</t>
         </is>
       </c>
       <c r="C9" s="15" t="n"/>
@@ -3135,12 +3135,12 @@
     <row r="10" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>Big Ben</t>
+          <t>Eyüp Sultan mecset</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Királyság, London</t>
+          <t>Törökország, Isztambul</t>
         </is>
       </c>
       <c r="C10" s="15" t="n"/>
@@ -3148,12 +3148,12 @@
     <row r="11" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>Brooklyn híd</t>
+          <t>Firenzei Dóm</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Államok, New York</t>
+          <t>Olaszország, Firenze</t>
         </is>
       </c>
       <c r="C11" s="15" t="n"/>
@@ -3161,12 +3161,12 @@
     <row r="12" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>Buckingham Palota</t>
+          <t>Hagia Sophia</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Királyság, London</t>
+          <t>Törökország, Isztambul</t>
         </is>
       </c>
       <c r="C12" s="15" t="n"/>
@@ -3174,12 +3174,12 @@
     <row r="13" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>Dohány utcai zsinagóga</t>
+          <t>Himedzsi várkastély</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Magyarország, Budapest</t>
+          <t>Japán, Himedzsi</t>
         </is>
       </c>
       <c r="C13" s="15" t="n"/>
@@ -3187,12 +3187,12 @@
     <row r="14" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>Eyüp Sultan mecset</t>
+          <t>Kultúra és Tudomány Palotája</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Törökország, Isztambul</t>
+          <t>Lengyelország, Varsó</t>
         </is>
       </c>
       <c r="C14" s="15" t="n"/>
@@ -3200,12 +3200,12 @@
     <row r="15" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>Groupama Aréna</t>
+          <t>Lincoln emlékmű</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Magyarország, Budapest</t>
+          <t>Egyesült Államok, Washington</t>
         </is>
       </c>
       <c r="C15" s="15" t="n"/>
@@ -3213,12 +3213,12 @@
     <row r="16" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>HMS Beagle 1918</t>
+          <t>Országház</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Királyság [elsüllyedt]</t>
+          <t>Magyarország, Budapest</t>
         </is>
       </c>
       <c r="C16" s="15" t="n"/>
@@ -3226,12 +3226,12 @@
     <row r="17" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>Kínai Nagy Fal</t>
+          <t>Római csatahajó</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Kína</t>
+          <t>Olaszország [elsüllyedt]</t>
         </is>
       </c>
       <c r="C17" s="15" t="n"/>
@@ -3239,12 +3239,12 @@
     <row r="18" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>Mustafa Kemal Atatürk Mauzóleuma</t>
+          <t>Szent Pál-székesegyház</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Törökország, Ankara</t>
+          <t>Egyesült Királyság, London</t>
         </is>
       </c>
       <c r="C18" s="15" t="n"/>
@@ -3252,12 +3252,12 @@
     <row r="19" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>Oszakai várkastély</t>
+          <t>Szent Vitus-székesegyház</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Japán, Oszaka</t>
+          <t>Csehország, Prága</t>
         </is>
       </c>
       <c r="C19" s="15" t="n"/>
@@ -3265,12 +3265,12 @@
     <row r="20" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>Római csatahajó</t>
+          <t>Tiananmen tér</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Olaszország [elsüllyedt]</t>
+          <t>Kína, Peking</t>
         </is>
       </c>
       <c r="C20" s="15" t="n"/>
@@ -3278,12 +3278,12 @@
     <row r="21" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>Santa Maria 1492</t>
+          <t>Tower híd</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Spanyolország [elsüllyedt]</t>
+          <t>Egyesült Királyság, London</t>
         </is>
       </c>
       <c r="C21" s="15" t="n"/>
@@ -3291,12 +3291,12 @@
     <row r="22" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>Szabadság-szobor</t>
+          <t>Új Hattyúkő kastély</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Államok, New York</t>
+          <t>Németország, Schwangau</t>
         </is>
       </c>
       <c r="C22" s="15" t="n"/>
@@ -3304,12 +3304,12 @@
     <row r="23" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>Szent István-bazilika</t>
+          <t>USS Constitution 1797</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Magyarország, Budapest</t>
+          <t>Egyesült Államok, Boston</t>
         </is>
       </c>
       <c r="C23" s="15" t="n"/>
@@ -3317,12 +3317,12 @@
     <row r="24" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>Szent Jakab-katedrális</t>
+          <t>Wat Phra Kaew</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Spanyolország, Santiago d. C.</t>
+          <t>Thaiföld, Bangkok</t>
         </is>
       </c>
       <c r="C24" s="15" t="n"/>
@@ -3330,12 +3330,12 @@
     <row r="25" ht="27" customFormat="1" customHeight="1" s="8" thickBot="1">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>Waweli székesegyház</t>
+          <t>Willis Tower</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
         <is>
-          <t>Lengyelország, Krakkó</t>
+          <t>Egyesült Államok, Chicago</t>
         </is>
       </c>
       <c r="C25" s="16" t="n"/>
@@ -3489,7 +3489,7 @@
     <row r="4" ht="60" customFormat="1" customHeight="1" s="9" thickBot="1">
       <c r="A4" s="19" t="inlineStr">
         <is>
-          <t>Next to each building’s name write the number that is shown beside its model in the exhibition!</t>
+          <t>Write the number next to the name of each building, that is shown near its model in the exhibition!</t>
         </is>
       </c>
     </row>
@@ -3526,12 +3526,12 @@
     <row r="7" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>Big Ben</t>
+          <t>Bank of China tower</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>London, United Kingdom</t>
+          <t>Hong Kong, China</t>
         </is>
       </c>
       <c r="C7" s="15" t="n"/>
@@ -3539,12 +3539,12 @@
     <row r="8" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>Brooklyn bridge</t>
+          <t>Colosseum</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>New York, United States of America</t>
+          <t>Rome, Italy</t>
         </is>
       </c>
       <c r="C8" s="15" t="n"/>
@@ -3552,12 +3552,12 @@
     <row r="9" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>Buckingham Palace</t>
+          <t>Eyüp Sultan mosque</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>London, United Kingdom</t>
+          <t>Istanbul, Turkey</t>
         </is>
       </c>
       <c r="C9" s="15" t="n"/>
@@ -3565,12 +3565,12 @@
     <row r="10" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>Dohány Street Synagogue</t>
+          <t>Florence Cathedral</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Firenze, Italy</t>
         </is>
       </c>
       <c r="C10" s="15" t="n"/>
@@ -3578,7 +3578,7 @@
     <row r="11" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>Eyüp Sultan mosque</t>
+          <t>Hagia Sophia</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -3591,12 +3591,12 @@
     <row r="12" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>Great Wall of China</t>
+          <t>Himeji castle</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Himeji, Japan</t>
         </is>
       </c>
       <c r="C12" s="15" t="n"/>
@@ -3604,7 +3604,7 @@
     <row r="13" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>Groupama Arena</t>
+          <t>Hungarian Parliament</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -3617,12 +3617,12 @@
     <row r="14" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>HMS Beagle 1918</t>
+          <t>Lincoln memorial</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>United Kingdom [sank]</t>
+          <t>Washington, United States of America</t>
         </is>
       </c>
       <c r="C14" s="15" t="n"/>
@@ -3630,12 +3630,12 @@
     <row r="15" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>Mausoleum of Mustafa Kemal Atatürk</t>
+          <t>Neuschwanstein castle</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Ankara, Turkey</t>
+          <t>Schwangau, Germany</t>
         </is>
       </c>
       <c r="C15" s="15" t="n"/>
@@ -3643,12 +3643,12 @@
     <row r="16" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>Osaka castle</t>
+          <t>Palace of Culture and Science</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Osaka, Japan</t>
+          <t>Warsaw, Poland</t>
         </is>
       </c>
       <c r="C16" s="15" t="n"/>
@@ -3669,12 +3669,12 @@
     <row r="18" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>Santa Maria 1492</t>
+          <t>St. Paul cathedral</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Spain [sank]</t>
+          <t>London, United Kingdom</t>
         </is>
       </c>
       <c r="C18" s="15" t="n"/>
@@ -3682,12 +3682,12 @@
     <row r="19" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>St. Jacob's cathedral</t>
+          <t>St. Vitus cathedral</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Santiago d. C., Spain</t>
+          <t>Prague, Czech Republic</t>
         </is>
       </c>
       <c r="C19" s="15" t="n"/>
@@ -3695,12 +3695,12 @@
     <row r="20" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>St. Stephen's basilica</t>
+          <t>Tiananmen Square</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Beijing, China</t>
         </is>
       </c>
       <c r="C20" s="15" t="n"/>
@@ -3708,12 +3708,12 @@
     <row r="21" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>Statue of Liberty</t>
+          <t>Tower bridge</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>New York, United States of America</t>
+          <t>London, United Kingdom</t>
         </is>
       </c>
       <c r="C21" s="15" t="n"/>
@@ -3721,12 +3721,12 @@
     <row r="22" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>Sultan Ahmed Mosque</t>
+          <t>United States Capitol</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Istanbul, Turkey</t>
+          <t>Washington, United States of America</t>
         </is>
       </c>
       <c r="C22" s="15" t="n"/>
@@ -3734,12 +3734,12 @@
     <row r="23" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>Temple of Heaven</t>
+          <t>USS Constitution 1797</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Beijing, China</t>
+          <t>Boston, United States of America</t>
         </is>
       </c>
       <c r="C23" s="15" t="n"/>
@@ -3747,12 +3747,12 @@
     <row r="24" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>The Moscow Kremlin Wall</t>
+          <t>Wat Phra Kaew</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Moscow, Russia</t>
+          <t>Bangkok, Thailand</t>
         </is>
       </c>
       <c r="C24" s="15" t="n"/>
@@ -3760,12 +3760,12 @@
     <row r="25" ht="27" customFormat="1" customHeight="1" s="8" thickBot="1">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>Wawel Cathedral</t>
+          <t>Willis Tower</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
         <is>
-          <t>Kraków, Poland</t>
+          <t>Chicago, United States of America</t>
         </is>
       </c>
       <c r="C25" s="16" t="n"/>
@@ -3841,7 +3841,7 @@
     <row r="4" ht="60" customFormat="1" customHeight="1" s="9" thickBot="1">
       <c r="A4" s="19" t="inlineStr">
         <is>
-          <t>Next to each building’s name write the number that is shown beside its model in the exhibition!</t>
+          <t>Write the number next to the name of each building, that is shown near its model in the exhibition!</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
     <row r="6" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>Akhmad Kadyrov mosque</t>
+          <t>Beijing Siheyuan</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Grozny, Russia</t>
+          <t>Beijing, China</t>
         </is>
       </c>
       <c r="C6" s="15" t="n"/>
@@ -3878,12 +3878,12 @@
     <row r="7" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>Al-Masjid al-Haram</t>
+          <t>Christ the Redeemer</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Mekka, Saudi Arabia</t>
+          <t>Rio de Janeiro, Brasil</t>
         </is>
       </c>
       <c r="C7" s="15" t="n"/>
@@ -3891,12 +3891,12 @@
     <row r="8" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>Burj Al Arab</t>
+          <t>Empire State Building</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>New York, United States of America</t>
         </is>
       </c>
       <c r="C8" s="15" t="n"/>
@@ -3904,12 +3904,12 @@
     <row r="9" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>Christ the Redeemer</t>
+          <t>Leaning Tower of Pisa</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Rio de Janeiro, Brasil</t>
+          <t>Pisa, Italy</t>
         </is>
       </c>
       <c r="C9" s="15" t="n"/>
@@ -3917,12 +3917,12 @@
     <row r="10" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>Chrysler Building</t>
+          <t>Matthias church &amp; Fisherman's bastion</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>New York, United States of America</t>
+          <t>Budapest, Hungary</t>
         </is>
       </c>
       <c r="C10" s="15" t="n"/>
@@ -3930,12 +3930,12 @@
     <row r="11" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>Château de Chenonceau</t>
+          <t>Mausoleum of Mustafa Kemal Atatürk</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Chenonceaux, France</t>
+          <t>Ankara, Turkey</t>
         </is>
       </c>
       <c r="C11" s="15" t="n"/>
@@ -3943,12 +3943,12 @@
     <row r="12" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>Eyüp Sultan mosque</t>
+          <t>Neuschwanstein castle</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Istanbul, Turkey</t>
+          <t>Schwangau, Germany</t>
         </is>
       </c>
       <c r="C12" s="15" t="n"/>
@@ -3956,12 +3956,12 @@
     <row r="13" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>HMS Beagle 1918</t>
+          <t>Peles castle</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>United Kingdom [sank]</t>
+          <t>Sinaia, Romania</t>
         </is>
       </c>
       <c r="C13" s="15" t="n"/>
@@ -3969,12 +3969,12 @@
     <row r="14" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>Heroes' Square</t>
+          <t>Petronas Twin towers</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Kuala Lumpur, Malaysia</t>
         </is>
       </c>
       <c r="C14" s="15" t="n"/>
@@ -3982,12 +3982,12 @@
     <row r="15" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>Hungarian Parliament</t>
+          <t>Prague Astronomical Clock and Town Hall</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Prague, Czech Republic</t>
         </is>
       </c>
       <c r="C15" s="15" t="n"/>
@@ -3995,12 +3995,12 @@
     <row r="16" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>Milan Cathedral</t>
+          <t>Roman warship</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Milan, Italy</t>
+          <t>Italy [sank]</t>
         </is>
       </c>
       <c r="C16" s="15" t="n"/>
@@ -4008,12 +4008,12 @@
     <row r="17" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>Neuschwanstein castle</t>
+          <t>San Felipe 1690</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Schwangau, Germany</t>
+          <t>Spain [sank]</t>
         </is>
       </c>
       <c r="C17" s="15" t="n"/>
@@ -4021,12 +4021,12 @@
     <row r="18" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>Osaka castle</t>
+          <t>Santa Maria 1492</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Osaka, Japan</t>
+          <t>Spain [sank]</t>
         </is>
       </c>
       <c r="C18" s="15" t="n"/>
@@ -4034,12 +4034,12 @@
     <row r="19" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>Prague Astronomical Clock and Town Hall</t>
+          <t>St. Isaac's cathedral</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Prague, Czech Republic</t>
+          <t>Saint Petersburg, Russia</t>
         </is>
       </c>
       <c r="C19" s="15" t="n"/>
@@ -4047,12 +4047,12 @@
     <row r="20" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>Saint Basil's cathedral</t>
+          <t>St. Paul cathedral</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Moscow, Russia</t>
+          <t>London, United Kingdom</t>
         </is>
       </c>
       <c r="C20" s="15" t="n"/>
@@ -4073,12 +4073,12 @@
     <row r="22" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>Széchenyi Chain Bridge</t>
+          <t>Sultan Ahmed Mosque</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Istanbul, Turkey</t>
         </is>
       </c>
       <c r="C22" s="15" t="n"/>
@@ -4086,12 +4086,12 @@
     <row r="23" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>Vajdahunyad Castle</t>
+          <t>Tiananmen Square</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Beijing, China</t>
         </is>
       </c>
       <c r="C23" s="15" t="n"/>
@@ -4099,12 +4099,12 @@
     <row r="24" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>Westminster Abbey</t>
+          <t>Tokyo Skytree</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>London, United Kingdom</t>
+          <t>Tokyo, Japan</t>
         </is>
       </c>
       <c r="C24" s="15" t="n"/>
@@ -4112,12 +4112,12 @@
     <row r="25" ht="27" customFormat="1" customHeight="1" s="8" thickBot="1">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>Willis Tower</t>
+          <t>United States Capitol</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
         <is>
-          <t>Chicago, United States of America</t>
+          <t>Washington, United States of America</t>
         </is>
       </c>
       <c r="C25" s="16" t="n"/>
@@ -4211,19 +4211,19 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Szám</t>
+          <t>Válasz</t>
         </is>
       </c>
     </row>
     <row r="6" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>A Vérző Megváltó temploma</t>
+          <t>Bank of China Tower</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Oroszország, Szentpétervár</t>
+          <t>Kína, Hong Kong</t>
         </is>
       </c>
       <c r="C6" s="15" t="n"/>
@@ -4231,12 +4231,12 @@
     <row r="7" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>Al-Masjid an-Nabawi</t>
+          <t>Brandenburgi kapu</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Szaúd-Arábia, Medina</t>
+          <t>Németország, Berlin</t>
         </is>
       </c>
       <c r="C7" s="15" t="n"/>
@@ -4244,12 +4244,12 @@
     <row r="8" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>Chrysler Building</t>
+          <t>Capitolium</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Államok, New York</t>
+          <t>Egyesült Államok, Washington</t>
         </is>
       </c>
       <c r="C8" s="15" t="n"/>
@@ -4257,12 +4257,12 @@
     <row r="9" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>Esmeralda 1855</t>
+          <t>Chrysler Building</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Chile [elsüllyedt]</t>
+          <t>Egyesült Államok, New York</t>
         </is>
       </c>
       <c r="C9" s="15" t="n"/>
@@ -4270,12 +4270,12 @@
     <row r="10" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>HMS Victory 1765</t>
+          <t>Hagia Sophia</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Királyság, Boston</t>
+          <t>Törökország, Isztambul</t>
         </is>
       </c>
       <c r="C10" s="15" t="n"/>
@@ -4296,12 +4296,12 @@
     <row r="12" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>Hohenzollern kastély</t>
+          <t>Királyi palota</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Németország, Bisingen</t>
+          <t>Lengyelország, Varsó</t>
         </is>
       </c>
       <c r="C12" s="15" t="n"/>
@@ -4309,12 +4309,12 @@
     <row r="13" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>Királyi palota</t>
+          <t>Louvre Múzeum</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Lengyelország, Varsó</t>
+          <t>Franciaország, Párizs</t>
         </is>
       </c>
       <c r="C13" s="15" t="n"/>
@@ -4322,12 +4322,12 @@
     <row r="14" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>Kultúra és Tudomány Palotája</t>
+          <t>Mátyás-templom és Halászbástya</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Lengyelország, Varsó</t>
+          <t>Magyarország, Budapest</t>
         </is>
       </c>
       <c r="C14" s="15" t="n"/>
@@ -4335,12 +4335,12 @@
     <row r="15" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>Mississippi gőzhajó</t>
+          <t>Mustafa Kemal Atatürk Mauzóleuma</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Államok, New Orleans</t>
+          <t>Törökország, Ankara</t>
         </is>
       </c>
       <c r="C15" s="15" t="n"/>
@@ -4348,12 +4348,12 @@
     <row r="16" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>Peles kastély</t>
+          <t>Nagy Iván-harangtorony</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Románia, Szinaja</t>
+          <t>Oroszország, Moszkva</t>
         </is>
       </c>
       <c r="C16" s="15" t="n"/>
@@ -4361,12 +4361,12 @@
     <row r="17" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>Pisai Ferde Torony</t>
+          <t>Peles kastély</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Olaszország, Pisa</t>
+          <t>Románia, Szinaja</t>
         </is>
       </c>
       <c r="C17" s="15" t="n"/>
@@ -4374,12 +4374,12 @@
     <row r="18" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>Sky Tower</t>
+          <t>Római csatahajó</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Új-Zéland, Auckland</t>
+          <t>Olaszország [elsüllyedt]</t>
         </is>
       </c>
       <c r="C18" s="15" t="n"/>
@@ -4387,12 +4387,12 @@
     <row r="19" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>Sydney-i Operaház</t>
+          <t>Suzhou klasszikus kertjei</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Ausztrália, Sydney</t>
+          <t>Kína, Suzhou</t>
         </is>
       </c>
       <c r="C19" s="15" t="n"/>
@@ -4400,12 +4400,12 @@
     <row r="20" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>Szabadság-szobor</t>
+          <t>Szent Jakab-katedrális</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Államok, New York</t>
+          <t>Spanyolország, Santiago d. C.</t>
         </is>
       </c>
       <c r="C20" s="15" t="n"/>
@@ -4413,12 +4413,12 @@
     <row r="21" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>Szent Jakab-katedrális</t>
+          <t>Szent Patrik-katedrális</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Spanyolország, Santiago d. C.</t>
+          <t>Egyesült Államok, New York</t>
         </is>
       </c>
       <c r="C21" s="15" t="n"/>
@@ -4426,12 +4426,12 @@
     <row r="22" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>Szent Péter-bazilika</t>
+          <t>Szmolnij-székesegyház</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Vatikán, Vatikán Város</t>
+          <t>Oroszország, Szentpétervár</t>
         </is>
       </c>
       <c r="C22" s="15" t="n"/>
@@ -4439,12 +4439,12 @@
     <row r="23" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>Széchenyi Lánchíd</t>
+          <t>Törcsvári kastély</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Magyarország, Budapest</t>
+          <t>Románia, Törcsvár</t>
         </is>
       </c>
       <c r="C23" s="15" t="n"/>
@@ -4452,12 +4452,12 @@
     <row r="24" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>Waweli székesegyház</t>
+          <t>Westminsteri apátság</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Lengyelország, Krakkó</t>
+          <t>Egyesült Királyság, London</t>
         </is>
       </c>
       <c r="C24" s="15" t="n"/>
@@ -4624,7 +4624,7 @@
     <row r="4" ht="60" customFormat="1" customHeight="1" s="9" thickBot="1">
       <c r="A4" s="19" t="inlineStr">
         <is>
-          <t>Next to each building’s name write the number that is shown beside its model in the exhibition!</t>
+          <t>Write the number next to the name of each building, that is shown near its model in the exhibition!</t>
         </is>
       </c>
     </row>
@@ -4648,12 +4648,12 @@
     <row r="6" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>Al-Masjid an-Nabawi</t>
+          <t>Bank of China tower</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Medina, Saudi Arabia</t>
+          <t>Hong Kong, China</t>
         </is>
       </c>
       <c r="C6" s="15" t="n"/>
@@ -4661,12 +4661,12 @@
     <row r="7" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>Chrysler Building</t>
+          <t>Bran castle</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>New York, United States of America</t>
+          <t>Bran, Romania</t>
         </is>
       </c>
       <c r="C7" s="15" t="n"/>
@@ -4674,12 +4674,12 @@
     <row r="8" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>Church of the Savior on Blood</t>
+          <t>Brandenburg gate</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Saint Petersburg, Russia</t>
+          <t>Berlin, Germany</t>
         </is>
       </c>
       <c r="C8" s="15" t="n"/>
@@ -4700,12 +4700,12 @@
     <row r="10" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>Esmeralda 1855</t>
+          <t>Chrysler Building</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Chile [sank]</t>
+          <t>New York, United States of America</t>
         </is>
       </c>
       <c r="C10" s="15" t="n"/>
@@ -4713,12 +4713,12 @@
     <row r="11" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>HMS Victory 1765</t>
+          <t>Classical Gardens of Suzhou</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Boston, United Kingdom</t>
+          <t>Suzhou, China</t>
         </is>
       </c>
       <c r="C11" s="15" t="n"/>
@@ -4726,12 +4726,12 @@
     <row r="12" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>Hohenzollern castle</t>
+          <t>Hagia Sophia</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Bisingen, Germany</t>
+          <t>Istanbul, Turkey</t>
         </is>
       </c>
       <c r="C12" s="15" t="n"/>
@@ -4739,12 +4739,12 @@
     <row r="13" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>Leaning Tower of Pisa</t>
+          <t>Ivan The Great Bell tower</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Pisa, Italy</t>
+          <t>Moscow, Russia</t>
         </is>
       </c>
       <c r="C13" s="15" t="n"/>
@@ -4752,12 +4752,12 @@
     <row r="14" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>Mississippi steamship</t>
+          <t>Louvre Museum</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>New Orleans, United States of America</t>
+          <t>Paris, France</t>
         </is>
       </c>
       <c r="C14" s="15" t="n"/>
@@ -4765,12 +4765,12 @@
     <row r="15" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>Palace of Culture and Science</t>
+          <t>Matthias church &amp; Fisherman's bastion</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Warsaw, Poland</t>
+          <t>Budapest, Hungary</t>
         </is>
       </c>
       <c r="C15" s="15" t="n"/>
@@ -4778,12 +4778,12 @@
     <row r="16" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>Peles castle</t>
+          <t>Mausoleum of Mustafa Kemal Atatürk</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Sinaia, Romania</t>
+          <t>Ankara, Turkey</t>
         </is>
       </c>
       <c r="C16" s="15" t="n"/>
@@ -4791,12 +4791,12 @@
     <row r="17" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>Royal Castle</t>
+          <t>Peles castle</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Warsaw, Poland</t>
+          <t>Sinaia, Romania</t>
         </is>
       </c>
       <c r="C17" s="15" t="n"/>
@@ -4804,12 +4804,12 @@
     <row r="18" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>Sky tower</t>
+          <t>Roman warship</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Auckland, New-Zealand</t>
+          <t>Italy [sank]</t>
         </is>
       </c>
       <c r="C18" s="15" t="n"/>
@@ -4817,12 +4817,12 @@
     <row r="19" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>St. Jacob's cathedral</t>
+          <t>Royal Castle</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Santiago d. C., Spain</t>
+          <t>Warsaw, Poland</t>
         </is>
       </c>
       <c r="C19" s="15" t="n"/>
@@ -4830,12 +4830,12 @@
     <row r="20" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>St. Peter's basilica</t>
+          <t>Smolny Cathedral</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Vatican City, Vatican</t>
+          <t>Saint Petersburg, Russia</t>
         </is>
       </c>
       <c r="C20" s="15" t="n"/>
@@ -4843,12 +4843,12 @@
     <row r="21" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>Statue of Liberty</t>
+          <t>St. Jacob's cathedral</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>New York, United States of America</t>
+          <t>Santiago d. C., Spain</t>
         </is>
       </c>
       <c r="C21" s="15" t="n"/>
@@ -4856,12 +4856,12 @@
     <row r="22" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>Sydney Opera House</t>
+          <t>St. Patrick cathedral</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Sydney, Australia</t>
+          <t>New York, United States of America</t>
         </is>
       </c>
       <c r="C22" s="15" t="n"/>
@@ -4869,12 +4869,12 @@
     <row r="23" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>Széchenyi Chain Bridge</t>
+          <t>United States Capitol</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Washington, United States of America</t>
         </is>
       </c>
       <c r="C23" s="15" t="n"/>
@@ -4882,12 +4882,12 @@
     <row r="24" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>Wawel Cathedral</t>
+          <t>Westminster Abbey</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Kraków, Poland</t>
+          <t>London, United Kingdom</t>
         </is>
       </c>
       <c r="C24" s="15" t="n"/>
@@ -4994,19 +4994,19 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Szám</t>
+          <t>Válasz</t>
         </is>
       </c>
     </row>
     <row r="6" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>A Vérző Megváltó temploma</t>
+          <t>Az ég temploma</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Oroszország, Szentpétervár</t>
+          <t>Kína, Peking</t>
         </is>
       </c>
       <c r="C6" s="15" t="n"/>
@@ -5014,12 +5014,12 @@
     <row r="7" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>Big Ben</t>
+          <t>Bank of China Tower</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Királyság, London</t>
+          <t>Kína, Hong Kong</t>
         </is>
       </c>
       <c r="C7" s="15" t="n"/>
@@ -5027,12 +5027,12 @@
     <row r="8" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>Boldog Vazul-székesegyház</t>
+          <t>Bolygó Hollandi szellemhajó</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Oroszország, Moszkva</t>
+          <t>Hollandia</t>
         </is>
       </c>
       <c r="C8" s="15" t="n"/>
@@ -5040,12 +5040,12 @@
     <row r="9" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>Buckingham Palota</t>
+          <t>Brooklyn híd</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Királyság, London</t>
+          <t>Egyesült Államok, New York</t>
         </is>
       </c>
       <c r="C9" s="15" t="n"/>
@@ -5053,12 +5053,12 @@
     <row r="10" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>Burj Kalifa</t>
+          <t>Chrysler Building</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Arab Emírségek, Dubai</t>
+          <t>Egyesült Államok, New York</t>
         </is>
       </c>
       <c r="C10" s="15" t="n"/>
@@ -5066,12 +5066,12 @@
     <row r="11" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>Galata torony</t>
+          <t>Colosseum</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Törökország, Isztambul</t>
+          <t>Olaszország, Róma</t>
         </is>
       </c>
       <c r="C11" s="15" t="n"/>
@@ -5079,12 +5079,12 @@
     <row r="12" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>Hohenzollern kastély</t>
+          <t>Hagia Sophia</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Németország, Bisingen</t>
+          <t>Törökország, Isztambul</t>
         </is>
       </c>
       <c r="C12" s="15" t="n"/>
@@ -5092,12 +5092,12 @@
     <row r="13" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>Kul Sharif mecset</t>
+          <t>Harry Potter Roxfort Kastély</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Oroszország, Kazán</t>
+          <t>Egyesült Királyság, Alnwick</t>
         </is>
       </c>
       <c r="C13" s="15" t="n"/>
@@ -5105,12 +5105,12 @@
     <row r="14" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>Kölni dóm</t>
+          <t>Kanadai Nemzeti TV-Torony</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Németország, Köln</t>
+          <t>Kanada, Toronto</t>
         </is>
       </c>
       <c r="C14" s="15" t="n"/>
@@ -5118,12 +5118,12 @@
     <row r="15" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>Milánói Dóm</t>
+          <t>Keleti Gyöngy torony</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Olaszország, Milánó</t>
+          <t>Kína, Shanghai</t>
         </is>
       </c>
       <c r="C15" s="15" t="n"/>
@@ -5131,12 +5131,12 @@
     <row r="16" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>Mustafa Kemal Atatürk Mauzóleuma</t>
+          <t>Királyi palota</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Törökország, Ankara</t>
+          <t>Lengyelország, Varsó</t>
         </is>
       </c>
       <c r="C16" s="15" t="n"/>
@@ -5144,12 +5144,12 @@
     <row r="17" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>Sky Tower</t>
+          <t>Kultúra és Tudomány Palotája</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Új-Zéland, Auckland</t>
+          <t>Lengyelország, Varsó</t>
         </is>
       </c>
       <c r="C17" s="15" t="n"/>
@@ -5157,12 +5157,12 @@
     <row r="18" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>Suzhou klasszikus kertjei</t>
+          <t>Mayflower</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Kína, Suzhou</t>
+          <t>Hollandia [elsüllyedt]</t>
         </is>
       </c>
       <c r="C18" s="15" t="n"/>
@@ -5170,12 +5170,12 @@
     <row r="19" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>Szabadság-szobor</t>
+          <t>Megváltó Krisztus-székesegyház</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Államok, New York</t>
+          <t>Oroszország, Moszkva</t>
         </is>
       </c>
       <c r="C19" s="15" t="n"/>
@@ -5183,12 +5183,12 @@
     <row r="20" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>Szent Márk tér</t>
+          <t>Mississippi gőzhajó</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Olaszország, Velence</t>
+          <t>Egyesült Államok, New Orleans</t>
         </is>
       </c>
       <c r="C20" s="15" t="n"/>
@@ -5196,12 +5196,12 @@
     <row r="21" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>Széchenyi Lánchíd</t>
+          <t>Pisai Ferde Torony</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Magyarország, Budapest</t>
+          <t>Olaszország, Pisa</t>
         </is>
       </c>
       <c r="C21" s="15" t="n"/>
@@ -5209,12 +5209,12 @@
     <row r="22" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>Törcsvári kastély</t>
+          <t>Prágai Csillagászati óra és városháza</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Románia, Törcsvár</t>
+          <t>Csehország, Prága</t>
         </is>
       </c>
       <c r="C22" s="15" t="n"/>
@@ -5222,12 +5222,12 @@
     <row r="23" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>Wat Phra Kaew</t>
+          <t>Sky Tower</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Thaiföld, Bangkok</t>
+          <t>Új-Zéland, Auckland</t>
         </is>
       </c>
       <c r="C23" s="15" t="n"/>
@@ -5235,12 +5235,12 @@
     <row r="24" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>Waweli székesegyház</t>
+          <t>Szent Izsák-székesegyház</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Lengyelország, Krakkó</t>
+          <t>Oroszország, Szentpétervár</t>
         </is>
       </c>
       <c r="C24" s="15" t="n"/>
@@ -5248,12 +5248,12 @@
     <row r="25" ht="27" customFormat="1" customHeight="1" s="8" thickBot="1">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>Westminsteri apátság</t>
+          <t>Szent Péter-bazilika</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
         <is>
-          <t>Egyesült Királyság, London</t>
+          <t>Vatikán, Vatikán Város</t>
         </is>
       </c>
       <c r="C25" s="16" t="n"/>
@@ -5407,7 +5407,7 @@
     <row r="4" ht="60" customFormat="1" customHeight="1" s="9" thickBot="1">
       <c r="A4" s="19" t="inlineStr">
         <is>
-          <t>Next to each building’s name write the number that is shown beside its model in the exhibition!</t>
+          <t>Write the number next to the name of each building, that is shown near its model in the exhibition!</t>
         </is>
       </c>
     </row>
@@ -5431,12 +5431,12 @@
     <row r="6" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>Big Ben</t>
+          <t>Bank of China tower</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>London, United Kingdom</t>
+          <t>Hong Kong, China</t>
         </is>
       </c>
       <c r="C6" s="15" t="n"/>
@@ -5444,12 +5444,12 @@
     <row r="7" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>Bran castle</t>
+          <t>Brooklyn bridge</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Bran, Romania</t>
+          <t>New York, United States of America</t>
         </is>
       </c>
       <c r="C7" s="15" t="n"/>
@@ -5457,12 +5457,12 @@
     <row r="8" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>Buckingham Palace</t>
+          <t>Canadian National tower</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>London, United Kingdom</t>
+          <t>Toronto, Canada</t>
         </is>
       </c>
       <c r="C8" s="15" t="n"/>
@@ -5470,12 +5470,12 @@
     <row r="9" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>Burj Kalifa</t>
+          <t>Cathedral of Christ the Savior</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>Moscow, Russia</t>
         </is>
       </c>
       <c r="C9" s="15" t="n"/>
@@ -5483,12 +5483,12 @@
     <row r="10" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>Church of the Savior on Blood</t>
+          <t>Chrysler Building</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Saint Petersburg, Russia</t>
+          <t>New York, United States of America</t>
         </is>
       </c>
       <c r="C10" s="15" t="n"/>
@@ -5496,12 +5496,12 @@
     <row r="11" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>Classical Gardens of Suzhou</t>
+          <t>Colosseum</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Suzhou, China</t>
+          <t>Rome, Italy</t>
         </is>
       </c>
       <c r="C11" s="15" t="n"/>
@@ -5509,12 +5509,12 @@
     <row r="12" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>Cologne cathedral</t>
+          <t>Flying Dutchman ghostship</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Cologne, Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C12" s="15" t="n"/>
@@ -5522,7 +5522,7 @@
     <row r="13" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>Galata tower</t>
+          <t>Hagia Sophia</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -5535,12 +5535,12 @@
     <row r="14" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>Hohenzollern castle</t>
+          <t>Harry Potter Hogwarts castle</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Bisingen, Germany</t>
+          <t>Alnwick, United Kingdom</t>
         </is>
       </c>
       <c r="C14" s="15" t="n"/>
@@ -5548,12 +5548,12 @@
     <row r="15" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>Kul Sharif mosque</t>
+          <t>Leaning Tower of Pisa</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Kazan, Russia</t>
+          <t>Pisa, Italy</t>
         </is>
       </c>
       <c r="C15" s="15" t="n"/>
@@ -5561,12 +5561,12 @@
     <row r="16" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>Mausoleum of Mustafa Kemal Atatürk</t>
+          <t>Mayflower</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Ankara, Turkey</t>
+          <t>Netherlands [sank]</t>
         </is>
       </c>
       <c r="C16" s="15" t="n"/>
@@ -5574,12 +5574,12 @@
     <row r="17" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>Milan Cathedral</t>
+          <t>Mississippi steamship</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Milan, Italy</t>
+          <t>New Orleans, United States of America</t>
         </is>
       </c>
       <c r="C17" s="15" t="n"/>
@@ -5587,12 +5587,12 @@
     <row r="18" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>Saint Basil's cathedral</t>
+          <t>Oriental Pearl tower</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Moscow, Russia</t>
+          <t>Shanghai, China</t>
         </is>
       </c>
       <c r="C18" s="15" t="n"/>
@@ -5600,12 +5600,12 @@
     <row r="19" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>Sky tower</t>
+          <t>Palace of Culture and Science</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Auckland, New-Zealand</t>
+          <t>Warsaw, Poland</t>
         </is>
       </c>
       <c r="C19" s="15" t="n"/>
@@ -5613,12 +5613,12 @@
     <row r="20" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>St. Mark square</t>
+          <t>Prague Astronomical Clock and Town Hall</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Venice, Italy</t>
+          <t>Prague, Czech Republic</t>
         </is>
       </c>
       <c r="C20" s="15" t="n"/>
@@ -5626,12 +5626,12 @@
     <row r="21" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>Statue of Liberty</t>
+          <t>Royal Castle</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>New York, United States of America</t>
+          <t>Warsaw, Poland</t>
         </is>
       </c>
       <c r="C21" s="15" t="n"/>
@@ -5639,12 +5639,12 @@
     <row r="22" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>Széchenyi Chain Bridge</t>
+          <t>Sky tower</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Auckland, New-Zealand</t>
         </is>
       </c>
       <c r="C22" s="15" t="n"/>
@@ -5652,12 +5652,12 @@
     <row r="23" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>Wat Phra Kaew</t>
+          <t>St. Isaac's cathedral</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Bangkok, Thailand</t>
+          <t>Saint Petersburg, Russia</t>
         </is>
       </c>
       <c r="C23" s="15" t="n"/>
@@ -5665,12 +5665,12 @@
     <row r="24" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>Wawel Cathedral</t>
+          <t>St. Peter's basilica</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Kraków, Poland</t>
+          <t>Vatican City, Vatican</t>
         </is>
       </c>
       <c r="C24" s="15" t="n"/>
@@ -5678,12 +5678,12 @@
     <row r="25" ht="27" customFormat="1" customHeight="1" s="8" thickBot="1">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>Westminster Abbey</t>
+          <t>Temple of Heaven</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
         <is>
-          <t>London, United Kingdom</t>
+          <t>Beijing, China</t>
         </is>
       </c>
       <c r="C25" s="16" t="n"/>
@@ -5777,19 +5777,19 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Szám</t>
+          <t>Válasz</t>
         </is>
       </c>
     </row>
     <row r="6" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>Akhmad Kadyrov mecset</t>
+          <t>Al-Masjid al-Haram</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Oroszország, Grozníj</t>
+          <t>Szaúd-Arábia, Mekka</t>
         </is>
       </c>
       <c r="C6" s="15" t="n"/>
@@ -5797,12 +5797,12 @@
     <row r="7" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>Fehér Ház</t>
+          <t>A moszkvai Kreml Fala</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Államok, Washington</t>
+          <t>Oroszország, Moszkva</t>
         </is>
       </c>
       <c r="C7" s="15" t="n"/>
@@ -5810,12 +5810,12 @@
     <row r="8" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>Firenzei Dóm</t>
+          <t>Buckingham Palota</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Olaszország, Firenze</t>
+          <t>Egyesült Királyság, London</t>
         </is>
       </c>
       <c r="C8" s="15" t="n"/>
@@ -5823,12 +5823,12 @@
     <row r="9" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>Galata torony</t>
+          <t>Colosseum</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Törökország, Isztambul</t>
+          <t>Olaszország, Róma</t>
         </is>
       </c>
       <c r="C9" s="15" t="n"/>
@@ -5836,7 +5836,7 @@
     <row r="10" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>Groupama Aréna</t>
+          <t>Dohány utcai zsinagóga</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -5849,12 +5849,12 @@
     <row r="11" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>Hősök tere</t>
+          <t>Fehér Ház</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Magyarország, Budapest</t>
+          <t>Egyesült Államok, Washington</t>
         </is>
       </c>
       <c r="C11" s="15" t="n"/>
@@ -5862,12 +5862,12 @@
     <row r="12" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>Kölni dóm</t>
+          <t>Galata torony</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Németország, Köln</t>
+          <t>Törökország, Isztambul</t>
         </is>
       </c>
       <c r="C12" s="15" t="n"/>
@@ -5875,12 +5875,12 @@
     <row r="13" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>Lincoln emlékmű</t>
+          <t>HMS Beagle 1918</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Államok, Washington</t>
+          <t>Egyesült Királyság [elsüllyedt]</t>
         </is>
       </c>
       <c r="C13" s="15" t="n"/>
@@ -5888,12 +5888,12 @@
     <row r="14" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>Mayflower</t>
+          <t>Holland szélmalom</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Hollandia [elsüllyedt]</t>
+          <t>Hollandia, Kinderdijk</t>
         </is>
       </c>
       <c r="C14" s="15" t="n"/>
@@ -5901,12 +5901,12 @@
     <row r="15" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>Megváltó Krisztus-székesegyház</t>
+          <t>Keleti Gyöngy torony</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Oroszország, Moszkva</t>
+          <t>Kína, Shanghai</t>
         </is>
       </c>
       <c r="C15" s="15" t="n"/>
@@ -5914,12 +5914,12 @@
     <row r="16" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>Nagyboldogasszony-székesegyház</t>
+          <t>Kölni dóm</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Oroszország, Szergijev Poszad</t>
+          <t>Németország, Köln</t>
         </is>
       </c>
       <c r="C16" s="15" t="n"/>
@@ -5927,12 +5927,12 @@
     <row r="17" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>Peles kastély</t>
+          <t>Kultúra és Tudomány Palotája</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Románia, Szinaja</t>
+          <t>Lengyelország, Varsó</t>
         </is>
       </c>
       <c r="C17" s="15" t="n"/>
@@ -5940,12 +5940,12 @@
     <row r="18" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>Petronas-ikertorony</t>
+          <t>Megváltó Krisztus-székesegyház</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Malajzia, Kuala Lumpur</t>
+          <t>Oroszország, Moszkva</t>
         </is>
       </c>
       <c r="C18" s="15" t="n"/>
@@ -5953,12 +5953,12 @@
     <row r="19" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>San Felipe 1690</t>
+          <t>Notre-Dame-székesegyház</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Spanyolország [elsüllyedt]</t>
+          <t>Franciaország, Párizs</t>
         </is>
       </c>
       <c r="C19" s="15" t="n"/>
@@ -5979,7 +5979,7 @@
     <row r="21" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>Szent Patrik-katedrális</t>
+          <t>Szabadság-szobor</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -5992,12 +5992,12 @@
     <row r="22" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>Szent Vitus-székesegyház</t>
+          <t>Széchenyi Lánchíd</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Csehország, Prága</t>
+          <t>Magyarország, Budapest</t>
         </is>
       </c>
       <c r="C22" s="15" t="n"/>
@@ -6005,12 +6005,12 @@
     <row r="23" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>Tower híd</t>
+          <t>Titanic</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Királyság, London</t>
+          <t>Egyesült Királyság [elsüllyedt]</t>
         </is>
       </c>
       <c r="C23" s="15" t="n"/>
@@ -6018,12 +6018,12 @@
     <row r="24" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>Törcsvári kastély</t>
+          <t>Tower híd</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Románia, Törcsvár</t>
+          <t>Egyesült Királyság, London</t>
         </is>
       </c>
       <c r="C24" s="15" t="n"/>
@@ -6190,7 +6190,7 @@
     <row r="4" ht="60" customFormat="1" customHeight="1" s="9" thickBot="1">
       <c r="A4" s="19" t="inlineStr">
         <is>
-          <t>Next to each building’s name write the number that is shown beside its model in the exhibition!</t>
+          <t>Write the number next to the name of each building, that is shown near its model in the exhibition!</t>
         </is>
       </c>
     </row>
@@ -6214,12 +6214,12 @@
     <row r="6" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>Akhmad Kadyrov mosque</t>
+          <t>Al-Masjid al-Haram</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Grozny, Russia</t>
+          <t>Mekka, Saudi Arabia</t>
         </is>
       </c>
       <c r="C6" s="15" t="n"/>
@@ -6227,12 +6227,12 @@
     <row r="7" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>Bran castle</t>
+          <t>Buckingham Palace</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Bran, Romania</t>
+          <t>London, United Kingdom</t>
         </is>
       </c>
       <c r="C7" s="15" t="n"/>
@@ -6279,12 +6279,12 @@
     <row r="11" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>Florence Cathedral</t>
+          <t>Colosseum</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Firenze, Italy</t>
+          <t>Rome, Italy</t>
         </is>
       </c>
       <c r="C11" s="15" t="n"/>
@@ -6292,12 +6292,12 @@
     <row r="12" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>Galata tower</t>
+          <t>Dohány Street Synagogue</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Istanbul, Turkey</t>
+          <t>Budapest, Hungary</t>
         </is>
       </c>
       <c r="C12" s="15" t="n"/>
@@ -6305,12 +6305,12 @@
     <row r="13" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>Groupama Arena</t>
+          <t>Dutch windmill</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Kinderdijk, Netherlands</t>
         </is>
       </c>
       <c r="C13" s="15" t="n"/>
@@ -6318,12 +6318,12 @@
     <row r="14" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>Heroes' Square</t>
+          <t>Galata tower</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Istanbul, Turkey</t>
         </is>
       </c>
       <c r="C14" s="15" t="n"/>
@@ -6331,12 +6331,12 @@
     <row r="15" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>Lincoln memorial</t>
+          <t>HMS Beagle 1918</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Washington, United States of America</t>
+          <t>United Kingdom [sank]</t>
         </is>
       </c>
       <c r="C15" s="15" t="n"/>
@@ -6344,12 +6344,12 @@
     <row r="16" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>Mayflower</t>
+          <t>Notre-Dame de Paris</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Netherlands [sank]</t>
+          <t>Paris, France</t>
         </is>
       </c>
       <c r="C16" s="15" t="n"/>
@@ -6357,12 +6357,12 @@
     <row r="17" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>Peles castle</t>
+          <t>Oriental Pearl tower</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Sinaia, Romania</t>
+          <t>Shanghai, China</t>
         </is>
       </c>
       <c r="C17" s="15" t="n"/>
@@ -6370,12 +6370,12 @@
     <row r="18" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>Petronas Twin towers</t>
+          <t>Palace of Culture and Science</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Kuala Lumpur, Malaysia</t>
+          <t>Warsaw, Poland</t>
         </is>
       </c>
       <c r="C18" s="15" t="n"/>
@@ -6383,12 +6383,12 @@
     <row r="19" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>San Felipe 1690</t>
+          <t>Statue of Liberty</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Spain [sank]</t>
+          <t>New York, United States of America</t>
         </is>
       </c>
       <c r="C19" s="15" t="n"/>
@@ -6396,12 +6396,12 @@
     <row r="20" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>St. Patrick cathedral</t>
+          <t>Széchenyi Chain Bridge</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>New York, United States of America</t>
+          <t>Budapest, Hungary</t>
         </is>
       </c>
       <c r="C20" s="15" t="n"/>
@@ -6409,12 +6409,12 @@
     <row r="21" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>St. Vitus cathedral</t>
+          <t>The Moscow Kremlin Wall</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Prague, Czech Republic</t>
+          <t>Moscow, Russia</t>
         </is>
       </c>
       <c r="C21" s="15" t="n"/>
@@ -6422,12 +6422,12 @@
     <row r="22" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>The Assumption Cathedral</t>
+          <t>Titanic</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Sergiyev Posad, Russia</t>
+          <t>United Kingdom [sank]</t>
         </is>
       </c>
       <c r="C22" s="15" t="n"/>
@@ -6560,19 +6560,19 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Szám</t>
+          <t>Válasz</t>
         </is>
       </c>
     </row>
     <row r="6" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>A moszkvai Kreml Fala</t>
+          <t>Al-Masjid an-Nabawi</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Oroszország, Moszkva</t>
+          <t>Szaúd-Arábia, Medina</t>
         </is>
       </c>
       <c r="C6" s="15" t="n"/>
@@ -6580,12 +6580,12 @@
     <row r="7" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>Big Ben</t>
+          <t>Bolygó Hollandi szellemhajó</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Királyság, London</t>
+          <t>Hollandia</t>
         </is>
       </c>
       <c r="C7" s="15" t="n"/>
@@ -6593,12 +6593,12 @@
     <row r="8" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>Brooklyn híd</t>
+          <t>Brandenburgi kapu</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Államok, New York</t>
+          <t>Németország, Berlin</t>
         </is>
       </c>
       <c r="C8" s="15" t="n"/>
@@ -6606,12 +6606,12 @@
     <row r="9" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>Burj Kalifa</t>
+          <t>Capitolium</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Arab Emírségek, Dubai</t>
+          <t>Egyesült Államok, Washington</t>
         </is>
       </c>
       <c r="C9" s="15" t="n"/>
@@ -6619,12 +6619,12 @@
     <row r="10" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>Capitolium</t>
+          <t>Dohány utcai zsinagóga</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Államok, Washington</t>
+          <t>Magyarország, Budapest</t>
         </is>
       </c>
       <c r="C10" s="15" t="n"/>
@@ -6632,12 +6632,12 @@
     <row r="11" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>Empire State Building</t>
+          <t>Himedzsi várkastély</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Államok, New York</t>
+          <t>Japán, Himedzsi</t>
         </is>
       </c>
       <c r="C11" s="15" t="n"/>
@@ -6645,12 +6645,12 @@
     <row r="12" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>Galata torony</t>
+          <t>HMS Beagle 1918</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Törökország, Isztambul</t>
+          <t>Egyesült Királyság [elsüllyedt]</t>
         </is>
       </c>
       <c r="C12" s="15" t="n"/>
@@ -6658,12 +6658,12 @@
     <row r="13" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>Hohenzollern kastély</t>
+          <t>Királyi palota</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Németország, Bisingen</t>
+          <t>Lengyelország, Varsó</t>
         </is>
       </c>
       <c r="C13" s="15" t="n"/>
@@ -6671,12 +6671,12 @@
     <row r="14" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>Királyi palota</t>
+          <t>Notre-Dame-székesegyház</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Lengyelország, Varsó</t>
+          <t>Franciaország, Párizs</t>
         </is>
       </c>
       <c r="C14" s="15" t="n"/>
@@ -6684,12 +6684,12 @@
     <row r="15" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>Kul Sharif mecset</t>
+          <t>Petronas-ikertorony</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Oroszország, Kazán</t>
+          <t>Malajzia, Kuala Lumpur</t>
         </is>
       </c>
       <c r="C15" s="15" t="n"/>
@@ -6697,12 +6697,12 @@
     <row r="16" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>Mátyás-templom és Halászbástya</t>
+          <t>Pisai Ferde Torony</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Magyarország, Budapest</t>
+          <t>Olaszország, Pisa</t>
         </is>
       </c>
       <c r="C16" s="15" t="n"/>
@@ -6710,12 +6710,12 @@
     <row r="17" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>Országház</t>
+          <t>Római csatahajó</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Magyarország, Budapest</t>
+          <t>Olaszország [elsüllyedt]</t>
         </is>
       </c>
       <c r="C17" s="15" t="n"/>
@@ -6723,12 +6723,12 @@
     <row r="18" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>Sagrada Família</t>
+          <t>Santa Maria 1492</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Spanyolország, Barcelona</t>
+          <t>Spanyolország [elsüllyedt]</t>
         </is>
       </c>
       <c r="C18" s="15" t="n"/>
@@ -6736,12 +6736,12 @@
     <row r="19" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>Sydney-i Operaház</t>
+          <t>Szabadság-szobor</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Ausztrália, Sydney</t>
+          <t>Egyesült Államok, New York</t>
         </is>
       </c>
       <c r="C19" s="15" t="n"/>
@@ -6749,12 +6749,12 @@
     <row r="20" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>Szent Izsák-székesegyház</t>
+          <t>Szent Jakab-katedrális</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Oroszország, Szentpétervár</t>
+          <t>Spanyolország, Santiago d. C.</t>
         </is>
       </c>
       <c r="C20" s="15" t="n"/>
@@ -6762,12 +6762,12 @@
     <row r="21" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>Szent Jakab-katedrális</t>
+          <t>Szent Pál-székesegyház</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Spanyolország, Santiago d. C.</t>
+          <t>Egyesült Királyság, London</t>
         </is>
       </c>
       <c r="C21" s="15" t="n"/>
@@ -6775,12 +6775,12 @@
     <row r="22" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>Szent Pál-székesegyház</t>
+          <t>Tiananmen tér</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Királyság, London</t>
+          <t>Kína, Peking</t>
         </is>
       </c>
       <c r="C22" s="15" t="n"/>
@@ -6788,12 +6788,12 @@
     <row r="23" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>Szent Péter-bazilika</t>
+          <t>Új Hattyúkő kastély</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Vatikán, Vatikán Város</t>
+          <t>Németország, Schwangau</t>
         </is>
       </c>
       <c r="C23" s="15" t="n"/>
@@ -6801,12 +6801,12 @@
     <row r="24" ht="27" customFormat="1" customHeight="1" s="8">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>USS Constitution 1797</t>
+          <t>Vajdahunyad vára</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Egyesült Államok, Boston</t>
+          <t>Magyarország, Budapest</t>
         </is>
       </c>
       <c r="C24" s="15" t="n"/>
@@ -6814,12 +6814,12 @@
     <row r="25" ht="27" customFormat="1" customHeight="1" s="8" thickBot="1">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>Wat Phra Kaew</t>
+          <t>Westminsteri apátság</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
         <is>
-          <t>Thaiföld, Bangkok</t>
+          <t>Egyesült Királyság, London</t>
         </is>
       </c>
       <c r="C25" s="16" t="n"/>
